--- a/Outputs_study2/BetweenAnalysis (GPT4-GPT3.5).xlsx
+++ b/Outputs_study2/BetweenAnalysis (GPT4-GPT3.5).xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Nature human behavior\Final version\Data and Code\Outputs_study2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Scientific reports\Data and Code\Outputs_study2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC6511C-ECCD-4640-B84D-EE58763B4926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9331DCC-163E-4825-88BB-0C2654EDB692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="15563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>domain</t>
   </si>
@@ -38,6 +41,12 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>p_value</t>
+  </si>
+  <si>
+    <t>p_adj</t>
   </si>
   <si>
     <t>Sense of fairness</t>
@@ -129,18 +138,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,9 +158,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -454,18 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,73 +487,97 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>-5.1785898740926699</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>-7.189165822493</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>-3.1680139256923399</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>5.0856488775785604E-7</v>
+      </c>
+      <c r="H2">
+        <v>1.01712977551571E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
         <v>-4.9314578450534201</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>-6.9399246208863703</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>-2.9229910692204699</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>1.72403102660645E-6</v>
+      </c>
+      <c r="H3">
+        <v>1.72403102660645E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>3.78642784428509</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>1.77210012846272</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>5.8007555601074596</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>2.3999738617663799E-4</v>
+      </c>
+      <c r="H4">
+        <v>4.7999477235327598E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -562,175 +589,229 @@
         <v>0.54985183169094698</v>
       </c>
       <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>-0.69837822997749799</v>
+      </c>
+      <c r="D6">
+        <v>-1.2665195361658701</v>
+      </c>
+      <c r="E6">
+        <v>-0.130236923789121</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0.49815046884062297</v>
+      </c>
+      <c r="H6">
+        <v>0.49815046884062297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>-4.7329035524976399</v>
+      </c>
+      <c r="D7">
+        <v>-6.7405543151679099</v>
+      </c>
+      <c r="E7">
+        <v>-2.72525278982737</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>4.41650299864982E-6</v>
+      </c>
+      <c r="H7">
+        <v>8.83300599729964E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>-5.0946935971031504</v>
+      </c>
+      <c r="D8">
+        <v>-7.1044118727329302</v>
+      </c>
+      <c r="E8">
+        <v>-3.08497532147336</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>7.7453627844725801E-7</v>
+      </c>
+      <c r="H8">
+        <v>2.3236088353417698E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>-4.4754923626795602</v>
+      </c>
+      <c r="D9">
+        <v>-5.9322238329225598</v>
+      </c>
+      <c r="E9">
+        <v>-3.0187608924365601</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>1.41788740075643E-5</v>
+      </c>
+      <c r="H9">
+        <v>1.41788740075643E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>-4.7329035524976399</v>
+      </c>
+      <c r="D10">
+        <v>-6.7405543151679099</v>
+      </c>
+      <c r="E10">
+        <v>-2.72525278982737</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>4.41650299864982E-6</v>
+      </c>
+      <c r="H10">
+        <v>6.62475449797473E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>-6.3729784343936302</v>
+      </c>
+      <c r="D11">
+        <v>-8.4174209061313299</v>
+      </c>
+      <c r="E11">
+        <v>-4.3285359626559297</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>6.3467742172918003E-10</v>
+      </c>
+      <c r="H11">
+        <v>1.9040322651875402E-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>-4.0366512459890798</v>
+      </c>
+      <c r="D12">
+        <v>-4.8911081807546797</v>
+      </c>
+      <c r="E12">
+        <v>-3.1821943112234798</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>9.0249927642060995E-5</v>
+      </c>
+      <c r="H12">
+        <v>9.0249927642060995E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>-5.7400501138267401</v>
+      </c>
+      <c r="D13">
+        <v>-7.7607035959618598</v>
+      </c>
+      <c r="E13">
+        <v>-3.7193966316916298</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>2.58197687674766E-8</v>
+      </c>
+      <c r="H13">
+        <v>3.8729653151214898E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-0.69837822997749799</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-1.2665195361658701</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-0.130236923789121</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-4.7329035524976399</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-6.7405543151679099</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-2.72525278982737</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-5.0946935971031504</v>
-      </c>
-      <c r="D8" s="1">
-        <v>-7.1044118727329302</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-3.08497532147336</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-4.4754923626795602</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-5.9322238329225598</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-3.0187608924365601</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-4.7329035524976399</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-6.7405543151679099</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-2.72525278982737</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-6.3729784343936302</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-8.4174209061313299</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-4.3285359626559297</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-4.0366512459890798</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-4.8911081807546797</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-3.1821943112234798</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-5.7400501138267401</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-7.7607035959618598</v>
-      </c>
-      <c r="E13" s="1">
-        <v>-3.7193966316916298</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>-5.0548941660145603</v>
@@ -742,15 +823,21 @@
         <v>-3.6339485709357602</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>9.4349144030836395E-7</v>
+      </c>
+      <c r="H14">
+        <v>9.4349144030836395E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>1.76412921511068</v>
@@ -762,15 +849,21 @@
         <v>5.4661250932396603</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>8.7054474591391706E-2</v>
+      </c>
+      <c r="H15">
+        <v>8.7054474591391706E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>-2.5960200918084402</v>
@@ -782,15 +875,21 @@
         <v>1.3507846018096501</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>1.1800667022918E-2</v>
+      </c>
+      <c r="H16">
+        <v>1.1800667022918E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>-4.7000910341380102</v>
@@ -802,15 +901,21 @@
         <v>-3.6831316584587301</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>5.1415948851829498E-6</v>
+      </c>
+      <c r="H17">
+        <v>5.1415948851829498E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>-5.1547093831257396</v>
@@ -822,10 +927,17 @@
         <v>-3.57794003955894</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>5.7363089656092804E-7</v>
+      </c>
+      <c r="H18">
+        <v>5.7363089656092804E-7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
